--- a/leather_last/Leather_요구사항명세서_최종.xlsx
+++ b/leather_last/Leather_요구사항명세서_최종.xlsx
@@ -435,6 +435,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -442,15 +451,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,7 +760,7 @@
   <dimension ref="B3:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,127 +792,127 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="13" t="s">
+      <c r="E10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
@@ -924,117 +924,117 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="13" t="s">
+      <c r="E14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="13" t="s">
+      <c r="E16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="11"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -1042,20 +1042,20 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="13" t="s">
+      <c r="E22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       <c r="E23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -1084,12 +1084,12 @@
         <v>61</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="14"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
@@ -1102,12 +1102,12 @@
       <c r="E25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="15"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
@@ -1116,8 +1116,8 @@
         <v>63</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1144,17 +1144,17 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1166,39 +1166,39 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="13" t="s">
+      <c r="E29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
@@ -1220,81 +1220,98 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="10"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="10" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G33" s="12"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="15"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G34" s="10"/>
-      <c r="H34" s="13" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G35" s="11"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="7:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="G36" s="11"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G37" s="11"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="14"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="11"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="14"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="12"/>
-      <c r="H39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="G34:G39"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="J34:J39"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="B28:B31"/>
@@ -1310,29 +1327,12 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="G34:G39"/>
-    <mergeCell ref="H34:H39"/>
-    <mergeCell ref="J34:J39"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="J6:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
